--- a/vaccine_plot.xlsx
+++ b/vaccine_plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epivo/Documents/vaccine_project/vaccine_track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215866EC-5126-E64C-BEBC-66FBB7C4F513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1467C6-D08A-834B-BFB2-BA7980D41637}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="5700" windowWidth="31400" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
+    <workbookView xWindow="6700" yWindow="1340" windowWidth="31400" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,10 +201,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$4</c:f>
+              <c:f>[1]Data!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -213,16 +213,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$B$2:$B$4</c:f>
+              <c:f>[1]Data!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -231,6 +237,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13071925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17020575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17288950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,10 +294,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$4</c:f>
+              <c:f>[1]Data!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -294,16 +306,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$C$2:$C$4</c:f>
+              <c:f>[1]Data!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -312,6 +330,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4225756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4836469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5306797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -363,10 +387,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$4</c:f>
+              <c:f>[1]Data!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -375,16 +399,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$D$2:$D$4</c:f>
+              <c:f>[1]Data!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -393,6 +423,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2217025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3260775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3416875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,10 +480,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$4</c:f>
+              <c:f>[1]Data!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -456,16 +492,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$E$2:$E$4</c:f>
+              <c:f>[1]Data!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -474,6 +516,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>282740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>429066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>511635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,7 +603,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -633,7 +681,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -666,7 +714,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1445,6 +1493,40 @@
           </cell>
           <cell r="E4">
             <v>282740</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>44201</v>
+          </cell>
+          <cell r="B5">
+            <v>17020575</v>
+          </cell>
+          <cell r="C5">
+            <v>4836469</v>
+          </cell>
+          <cell r="D5">
+            <v>3260775</v>
+          </cell>
+          <cell r="E5">
+            <v>429066</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>44202</v>
+          </cell>
+          <cell r="B6">
+            <v>17288950</v>
+          </cell>
+          <cell r="C6">
+            <v>5306797</v>
+          </cell>
+          <cell r="D6">
+            <v>3416875</v>
+          </cell>
+          <cell r="E6">
+            <v>511635</v>
           </cell>
         </row>
       </sheetData>
@@ -1753,7 +1835,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/vaccine_plot.xlsx
+++ b/vaccine_plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epivo/Documents/vaccine_project/vaccine_track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1467C6-D08A-834B-BFB2-BA7980D41637}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DCC655-413D-924C-A21B-C46A36E683DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="1340" windowWidth="31400" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
   </bookViews>
@@ -164,17 +164,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Data!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Doses Distributed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -199,50 +188,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0789602249970289E-2"/>
+                  <c:y val="-3.4149674768914756E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$6</c:f>
+              <c:f>[1]Data!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44178</c:v>
+                  <c:v>44195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44195</c:v>
+                  <c:v>44198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44198</c:v>
+                  <c:v>44201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44201</c:v>
+                  <c:v>44202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44202</c:v>
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$B$2:$B$6</c:f>
+              <c:f>[1]Data!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12409050</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12409050</c:v>
+                  <c:v>13071925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13071925</c:v>
+                  <c:v>17020575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17020575</c:v>
+                  <c:v>17288950</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17288950</c:v>
+                  <c:v>21419800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22137350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -257,17 +302,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Data!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Number of People Initiating Vaccination (1st Dose Received)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -292,50 +326,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8796406737587091E-3"/>
+                  <c:y val="-1.629400890106128E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$6</c:f>
+              <c:f>[1]Data!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44178</c:v>
+                  <c:v>44195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44195</c:v>
+                  <c:v>44198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44198</c:v>
+                  <c:v>44201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44201</c:v>
+                  <c:v>44202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44202</c:v>
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$C$2:$C$6</c:f>
+              <c:f>[1]Data!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2589125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2589125</c:v>
+                  <c:v>4225756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4225756</c:v>
+                  <c:v>4836469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4836469</c:v>
+                  <c:v>5306797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5306797</c:v>
+                  <c:v>5919418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6688231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -350,17 +440,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Data!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Doses Distributed for Use in Long-Term Care Facilities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -387,48 +466,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$6</c:f>
+              <c:f>[1]Data!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44178</c:v>
+                  <c:v>44195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44195</c:v>
+                  <c:v>44198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44198</c:v>
+                  <c:v>44201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44201</c:v>
+                  <c:v>44202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44202</c:v>
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$D$2:$D$6</c:f>
+              <c:f>[1]Data!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2166200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2166200</c:v>
+                  <c:v>2217025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2217025</c:v>
+                  <c:v>3260775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3260775</c:v>
+                  <c:v>3416875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3416875</c:v>
+                  <c:v>3770425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4060225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,17 +528,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Data!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Number of People Initiating Vaccination (1st Dose Received) in Long-Term Care Facilities</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -480,48 +554,54 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$6</c:f>
+              <c:f>[1]Data!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44178</c:v>
+                  <c:v>44195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44195</c:v>
+                  <c:v>44198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44198</c:v>
+                  <c:v>44201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44201</c:v>
+                  <c:v>44202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44202</c:v>
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$E$2:$E$6</c:f>
+              <c:f>[1]Data!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>167149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167149</c:v>
+                  <c:v>282740</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>282740</c:v>
+                  <c:v>429066</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>429066</c:v>
+                  <c:v>511635</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>511635</c:v>
+                  <c:v>603313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>693246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,6 +1609,40 @@
             <v>511635</v>
           </cell>
         </row>
+        <row r="7">
+          <cell r="A7">
+            <v>44203</v>
+          </cell>
+          <cell r="B7">
+            <v>21419800</v>
+          </cell>
+          <cell r="C7">
+            <v>5919418</v>
+          </cell>
+          <cell r="D7">
+            <v>3770425</v>
+          </cell>
+          <cell r="E7">
+            <v>603313</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>44204</v>
+          </cell>
+          <cell r="B8">
+            <v>22137350</v>
+          </cell>
+          <cell r="C8">
+            <v>6688231</v>
+          </cell>
+          <cell r="D8">
+            <v>4060225</v>
+          </cell>
+          <cell r="E8">
+            <v>693246</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -1835,7 +1949,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/vaccine_plot.xlsx
+++ b/vaccine_plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epivo/Documents/vaccine_project/vaccine_track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DCC655-413D-924C-A21B-C46A36E683DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9716F632-764D-F24B-A8E3-E92B5A1C52DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="1340" windowWidth="31400" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
+    <workbookView xWindow="5720" yWindow="4520" windowWidth="28440" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +36,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,15 +215,17 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0789602249970289E-2"/>
-                  <c:y val="-3.4149674768914756E-2"/>
+                  <c:x val="-0.12950797304613054"/>
+                  <c:y val="-3.2825744608010955E-3"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -240,10 +253,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$3:$A$8</c:f>
+              <c:f>[1]Data!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>44195</c:v>
                 </c:pt>
@@ -261,16 +274,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$B$3:$B$8</c:f>
+              <c:f>[1]Data!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>12409050</c:v>
                 </c:pt>
@@ -288,6 +307,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>22137350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25480725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27696150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -378,10 +403,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$3:$A$8</c:f>
+              <c:f>[1]Data!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>44195</c:v>
                 </c:pt>
@@ -399,16 +424,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$C$3:$C$8</c:f>
+              <c:f>[1]Data!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2589125</c:v>
                 </c:pt>
@@ -426,6 +457,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6688231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8987322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9327138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,10 +503,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$3:$A$8</c:f>
+              <c:f>[1]Data!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>44195</c:v>
                 </c:pt>
@@ -487,16 +524,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$D$3:$D$8</c:f>
+              <c:f>[1]Data!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2166200</c:v>
                 </c:pt>
@@ -514,6 +557,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4060225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4239775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4385175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,10 +603,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$3:$A$8</c:f>
+              <c:f>[1]Data!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>44195</c:v>
                 </c:pt>
@@ -575,16 +624,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$E$3:$E$8</c:f>
+              <c:f>[1]Data!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>167149</c:v>
                 </c:pt>
@@ -602,6 +657,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>693246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>937028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>951774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,6 +723,521 @@
           </c:spPr>
         </c:minorGridlines>
         <c:numFmt formatCode="mm/dd/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926044111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1926044111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926042463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mysteriously</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Unused </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vaccines</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0789602249970289E-2"/>
+                  <c:y val="-3.4149674768914756E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9819925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8846169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12184106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11982153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15500382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15449119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16493403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18369012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A033-6349-8845-FB9E4F1F9EB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1926042463"/>
+        <c:axId val="1926044111"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1926042463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -945,6 +1521,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1461,20 +2077,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1499,6 +2631,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E180A8C4-3250-B044-A1DB-DCB989025A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1510,20 +2680,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Total Doses Distributed</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Total Number of People Initiating Vaccination (1st Dose Received)</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Doses Distributed for Use in Long-Term Care Facilities</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Number of People Initiating Vaccination (1st Dose Received) in Long-Term Care Facilities</v>
-          </cell>
-        </row>
         <row r="2">
           <cell r="A2">
             <v>44178</v>
@@ -1532,12 +2688,6 @@
             <v>0</v>
           </cell>
           <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
             <v>0</v>
           </cell>
         </row>
@@ -1641,6 +2791,40 @@
           </cell>
           <cell r="E8">
             <v>693246</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>44207</v>
+          </cell>
+          <cell r="B9">
+            <v>25480725</v>
+          </cell>
+          <cell r="C9">
+            <v>8987322</v>
+          </cell>
+          <cell r="D9">
+            <v>4239775</v>
+          </cell>
+          <cell r="E9">
+            <v>937028</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>44208</v>
+          </cell>
+          <cell r="B10">
+            <v>27696150</v>
+          </cell>
+          <cell r="C10">
+            <v>9327138</v>
+          </cell>
+          <cell r="D10">
+            <v>4385175</v>
+          </cell>
+          <cell r="E10">
+            <v>951774</v>
           </cell>
         </row>
       </sheetData>
@@ -1946,14 +3130,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBA3BF7-0DF7-984A-9121-CF93E2AA7B2D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <f>[1]Data!$A$2</f>
+        <v>44178</v>
+      </c>
+      <c r="B1">
+        <f>C1-D1</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>[1]Data!$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>[1]Data!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>[1]Data!$A$3</f>
+        <v>44195</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B20" si="0">C2-D2</f>
+        <v>9819925</v>
+      </c>
+      <c r="C2">
+        <f>[1]Data!$B$3</f>
+        <v>12409050</v>
+      </c>
+      <c r="D2">
+        <f>[1]Data!$C$3</f>
+        <v>2589125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f>[1]Data!$A$4</f>
+        <v>44198</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>8846169</v>
+      </c>
+      <c r="C3">
+        <f>[1]Data!$B$4</f>
+        <v>13071925</v>
+      </c>
+      <c r="D3">
+        <f>[1]Data!$C$4</f>
+        <v>4225756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f>[1]Data!$A$5</f>
+        <v>44201</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>12184106</v>
+      </c>
+      <c r="C4">
+        <f>[1]Data!$B$5</f>
+        <v>17020575</v>
+      </c>
+      <c r="D4">
+        <f>[1]Data!$C$5</f>
+        <v>4836469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f>[1]Data!$A$6</f>
+        <v>44202</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>11982153</v>
+      </c>
+      <c r="C5">
+        <f>[1]Data!$B$6</f>
+        <v>17288950</v>
+      </c>
+      <c r="D5">
+        <f>[1]Data!$C$6</f>
+        <v>5306797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f>[1]Data!$A$7</f>
+        <v>44203</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>15500382</v>
+      </c>
+      <c r="C6">
+        <f>[1]Data!$B$7</f>
+        <v>21419800</v>
+      </c>
+      <c r="D6">
+        <f>[1]Data!$C$7</f>
+        <v>5919418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f>[1]Data!$A$8</f>
+        <v>44204</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>15449119</v>
+      </c>
+      <c r="C7">
+        <f>[1]Data!$B$8</f>
+        <v>22137350</v>
+      </c>
+      <c r="D7">
+        <f>[1]Data!$C$8</f>
+        <v>6688231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f>[1]Data!$A$9</f>
+        <v>44207</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>16493403</v>
+      </c>
+      <c r="C8">
+        <f>[1]Data!$B$9</f>
+        <v>25480725</v>
+      </c>
+      <c r="D8">
+        <f>[1]Data!$C$9</f>
+        <v>8987322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f>[1]Data!$A$10</f>
+        <v>44208</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>18369012</v>
+      </c>
+      <c r="C9">
+        <f>[1]Data!$B$10</f>
+        <v>27696150</v>
+      </c>
+      <c r="D9">
+        <f>[1]Data!$C$10</f>
+        <v>9327138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f>[1]Data!$A$11</f>
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>[1]Data!$B$11</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>[1]Data!$C$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f>[1]Data!$A$12</f>
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>[1]Data!$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>[1]Data!$C$12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f>[1]Data!$A$13</f>
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>[1]Data!$B$13</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>[1]Data!$C$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f>[1]Data!$A$14</f>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>[1]Data!$B$14</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>[1]Data!$C$14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f>[1]Data!$A$15</f>
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>[1]Data!$B$15</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>[1]Data!$C$15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f>[1]Data!$A$16</f>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>[1]Data!$B$16</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>[1]Data!$C$16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f>[1]Data!$A$17</f>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>[1]Data!$B$17</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>[1]Data!$C$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f>[1]Data!$A$18</f>
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>[1]Data!$B$18</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>[1]Data!$C$18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f>[1]Data!$A$19</f>
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>[1]Data!$B$19</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>[1]Data!$C$19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f>[1]Data!$A$20</f>
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>[1]Data!$B$20</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>[1]Data!$C$20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f>[1]Data!$A$21</f>
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>[1]Data!$B$21</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>[1]Data!$C$21</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/vaccine_plot.xlsx
+++ b/vaccine_plot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epivo/Documents/vaccine_project/vaccine_track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9716F632-764D-F24B-A8E3-E92B5A1C52DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AEB012-F747-1540-BD2C-1E41B63E1485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="4520" windowWidth="28440" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
+    <workbookView xWindow="8060" yWindow="3380" windowWidth="28440" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -175,6 +171,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Doses Distributed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -199,120 +206,86 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.12950797304613054"/>
-                  <c:y val="-3.2825744608010955E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$3:$A$10</c:f>
+              <c:f>[1]Data!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44195</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44198</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44201</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44202</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44203</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44204</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44207</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$B$3:$B$10</c:f>
+              <c:f>[1]Data!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12409050</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>13071925</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>17020575</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>17288950</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>21419800</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>22137350</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>25480725</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>27696150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29380125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30628175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -327,6 +300,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Number of People Initiating Vaccination (1st Dose Received)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -351,118 +335,86 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.8796406737587091E-3"/>
-                  <c:y val="-1.629400890106128E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$3:$A$10</c:f>
+              <c:f>[1]Data!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44195</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44198</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44201</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44202</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44203</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44204</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44207</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$C$3:$C$10</c:f>
+              <c:f>[1]Data!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2589125</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4225756</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4836469</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5306797</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5919418</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6688231</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8987322</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9327138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10278462</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8348671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,6 +429,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Data!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Doses Distributed for Use in Long-Term Care Facilities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -503,66 +466,81 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$3:$A$10</c:f>
+              <c:f>[1]Data!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44195</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44198</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44201</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44202</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44203</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44204</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44207</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$D$3:$D$10</c:f>
+              <c:f>[1]Data!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2166200</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2217025</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3260775</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3416875</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3770425</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4060225</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4239775</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4385175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4556575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,6 +555,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Data!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Doses Administered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -603,66 +592,84 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$3:$A$10</c:f>
+              <c:f>[1]Data!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44195</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44198</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44201</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44202</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44203</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44204</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44207</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$E$3:$E$10</c:f>
+              <c:f>[1]Data!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>167149</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>282740</c:v>
+                  <c:v>2589125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>429066</c:v>
+                  <c:v>4225756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>511635</c:v>
+                  <c:v>4836469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>603313</c:v>
+                  <c:v>5306797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>693246</c:v>
+                  <c:v>5919418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>937028</c:v>
+                  <c:v>6688231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>951774</c:v>
+                  <c:v>8987322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9327138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10278462</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11148991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,6 +678,399 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-D52F-6144-BAB2-6726892312DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Data!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of People Receiving 1 or More Doses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Data!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Data!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2589125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4225756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4836469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5306797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5919418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6688231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8987322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9327138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10278462</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9690757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-800D-9D42-AED1-95CE8E8C44B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Data!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of People Receiving 2 Doses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Data!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Data!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1342086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-800D-9D42-AED1-95CE8E8C44B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Data!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Doses Administered in Long-Term Care Facilities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Data!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Data!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>282740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>429066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>511635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>603313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>693246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>937028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>951774</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1084177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1225493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-800D-9D42-AED1-95CE8E8C44B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -694,34 +1094,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:numFmt formatCode="mm/dd/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -786,20 +1158,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:minorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -882,532 +1270,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Mysteriously</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Unused </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Vaccines</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.0789602249970289E-2"/>
-                  <c:y val="-3.4149674768914756E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>44195</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44201</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44202</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44203</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44204</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44207</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44208</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>9819925</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8846169</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12184106</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11982153</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15500382</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15449119</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16493403</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18369012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A033-6349-8845-FB9E4F1F9EB1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1926042463"/>
-        <c:axId val="1926044111"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1926042463"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1926044111"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1926044111"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1926042463"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11699625445086555"/>
-          <c:y val="0.82407411180811263"/>
-          <c:w val="0.60012605467357383"/>
-          <c:h val="0.17421896610749743"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1521,46 +1384,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2077,522 +1900,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2603,8 +1910,8 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -2631,44 +1938,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E180A8C4-3250-B044-A1DB-DCB989025A37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2680,6 +1949,29 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Total Doses Distributed</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Total Number of People Initiating Vaccination (1st Dose Received)</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Doses Distributed for Use in Long-Term Care Facilities</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Total Doses Administered</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Number of People Receiving 1 or More Doses</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>Number of People Receiving 2 Doses</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>Doses Administered in Long-Term Care Facilities</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="A2">
             <v>44178</v>
@@ -2688,6 +1980,21 @@
             <v>0</v>
           </cell>
           <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
             <v>0</v>
           </cell>
         </row>
@@ -2705,6 +2012,15 @@
             <v>2166200</v>
           </cell>
           <cell r="E3">
+            <v>2589125</v>
+          </cell>
+          <cell r="F3">
+            <v>2589125</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+          <cell r="H3">
             <v>167149</v>
           </cell>
         </row>
@@ -2722,6 +2038,15 @@
             <v>2217025</v>
           </cell>
           <cell r="E4">
+            <v>4225756</v>
+          </cell>
+          <cell r="F4">
+            <v>4225756</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="H4">
             <v>282740</v>
           </cell>
         </row>
@@ -2739,6 +2064,15 @@
             <v>3260775</v>
           </cell>
           <cell r="E5">
+            <v>4836469</v>
+          </cell>
+          <cell r="F5">
+            <v>4836469</v>
+          </cell>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
+          <cell r="H5">
             <v>429066</v>
           </cell>
         </row>
@@ -2756,6 +2090,15 @@
             <v>3416875</v>
           </cell>
           <cell r="E6">
+            <v>5306797</v>
+          </cell>
+          <cell r="F6">
+            <v>5306797</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+          <cell r="H6">
             <v>511635</v>
           </cell>
         </row>
@@ -2773,6 +2116,15 @@
             <v>3770425</v>
           </cell>
           <cell r="E7">
+            <v>5919418</v>
+          </cell>
+          <cell r="F7">
+            <v>5919418</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+          <cell r="H7">
             <v>603313</v>
           </cell>
         </row>
@@ -2790,6 +2142,15 @@
             <v>4060225</v>
           </cell>
           <cell r="E8">
+            <v>6688231</v>
+          </cell>
+          <cell r="F8">
+            <v>6688231</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+          <cell r="H8">
             <v>693246</v>
           </cell>
         </row>
@@ -2807,6 +2168,15 @@
             <v>4239775</v>
           </cell>
           <cell r="E9">
+            <v>8987322</v>
+          </cell>
+          <cell r="F9">
+            <v>8987322</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="H9">
             <v>937028</v>
           </cell>
         </row>
@@ -2824,7 +2194,65 @@
             <v>4385175</v>
           </cell>
           <cell r="E10">
+            <v>9327138</v>
+          </cell>
+          <cell r="F10">
+            <v>9327138</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
+          <cell r="H10">
             <v>951774</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>44209</v>
+          </cell>
+          <cell r="B11">
+            <v>29380125</v>
+          </cell>
+          <cell r="C11">
+            <v>10278462</v>
+          </cell>
+          <cell r="D11">
+            <v>4556575</v>
+          </cell>
+          <cell r="E11">
+            <v>10278462</v>
+          </cell>
+          <cell r="F11">
+            <v>10278462</v>
+          </cell>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
+          <cell r="H11">
+            <v>1084177</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>44210</v>
+          </cell>
+          <cell r="B12">
+            <v>30628175</v>
+          </cell>
+          <cell r="C12">
+            <v>8348671</v>
+          </cell>
+          <cell r="E12">
+            <v>11148991</v>
+          </cell>
+          <cell r="F12">
+            <v>9690757</v>
+          </cell>
+          <cell r="G12">
+            <v>1342086</v>
+          </cell>
+          <cell r="H12">
+            <v>1225493</v>
           </cell>
         </row>
       </sheetData>
@@ -3130,373 +2558,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBA3BF7-0DF7-984A-9121-CF93E2AA7B2D}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <f>[1]Data!$A$2</f>
-        <v>44178</v>
-      </c>
-      <c r="B1">
-        <f>C1-D1</f>
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <f>[1]Data!$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <f>[1]Data!$C$2</f>
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <f>[1]Data!$A$3</f>
-        <v>44195</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B20" si="0">C2-D2</f>
-        <v>9819925</v>
-      </c>
-      <c r="C2">
-        <f>[1]Data!$B$3</f>
-        <v>12409050</v>
-      </c>
-      <c r="D2">
-        <f>[1]Data!$C$3</f>
-        <v>2589125</v>
-      </c>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <f>[1]Data!$A$4</f>
-        <v>44198</v>
-      </c>
-      <c r="B3">
-        <f t="shared" si="0"/>
-        <v>8846169</v>
-      </c>
-      <c r="C3">
-        <f>[1]Data!$B$4</f>
-        <v>13071925</v>
-      </c>
-      <c r="D3">
-        <f>[1]Data!$C$4</f>
-        <v>4225756</v>
-      </c>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <f>[1]Data!$A$5</f>
-        <v>44201</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>12184106</v>
-      </c>
-      <c r="C4">
-        <f>[1]Data!$B$5</f>
-        <v>17020575</v>
-      </c>
-      <c r="D4">
-        <f>[1]Data!$C$5</f>
-        <v>4836469</v>
-      </c>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <f>[1]Data!$A$6</f>
-        <v>44202</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>11982153</v>
-      </c>
-      <c r="C5">
-        <f>[1]Data!$B$6</f>
-        <v>17288950</v>
-      </c>
-      <c r="D5">
-        <f>[1]Data!$C$6</f>
-        <v>5306797</v>
-      </c>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <f>[1]Data!$A$7</f>
-        <v>44203</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>15500382</v>
-      </c>
-      <c r="C6">
-        <f>[1]Data!$B$7</f>
-        <v>21419800</v>
-      </c>
-      <c r="D6">
-        <f>[1]Data!$C$7</f>
-        <v>5919418</v>
-      </c>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <f>[1]Data!$A$8</f>
-        <v>44204</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>15449119</v>
-      </c>
-      <c r="C7">
-        <f>[1]Data!$B$8</f>
-        <v>22137350</v>
-      </c>
-      <c r="D7">
-        <f>[1]Data!$C$8</f>
-        <v>6688231</v>
-      </c>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <f>[1]Data!$A$9</f>
-        <v>44207</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>16493403</v>
-      </c>
-      <c r="C8">
-        <f>[1]Data!$B$9</f>
-        <v>25480725</v>
-      </c>
-      <c r="D8">
-        <f>[1]Data!$C$9</f>
-        <v>8987322</v>
-      </c>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <f>[1]Data!$A$10</f>
-        <v>44208</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>18369012</v>
-      </c>
-      <c r="C9">
-        <f>[1]Data!$B$10</f>
-        <v>27696150</v>
-      </c>
-      <c r="D9">
-        <f>[1]Data!$C$10</f>
-        <v>9327138</v>
-      </c>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <f>[1]Data!$A$11</f>
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f>[1]Data!$B$11</f>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f>[1]Data!$C$11</f>
-        <v>0</v>
-      </c>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <f>[1]Data!$A$12</f>
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f>[1]Data!$B$12</f>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f>[1]Data!$C$12</f>
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <f>[1]Data!$A$13</f>
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f>[1]Data!$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f>[1]Data!$C$13</f>
-        <v>0</v>
-      </c>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f>[1]Data!$A$14</f>
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f>[1]Data!$B$14</f>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f>[1]Data!$C$14</f>
-        <v>0</v>
-      </c>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <f>[1]Data!$A$15</f>
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <f>[1]Data!$B$15</f>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f>[1]Data!$C$15</f>
-        <v>0</v>
-      </c>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <f>[1]Data!$A$16</f>
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f>[1]Data!$B$16</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f>[1]Data!$C$16</f>
-        <v>0</v>
-      </c>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <f>[1]Data!$A$17</f>
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f>[1]Data!$B$17</f>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>[1]Data!$C$17</f>
-        <v>0</v>
-      </c>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <f>[1]Data!$A$18</f>
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <f>[1]Data!$B$18</f>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f>[1]Data!$C$18</f>
-        <v>0</v>
-      </c>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <f>[1]Data!$A$19</f>
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <f>[1]Data!$B$19</f>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f>[1]Data!$C$19</f>
-        <v>0</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <f>[1]Data!$A$20</f>
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <f>[1]Data!$B$20</f>
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f>[1]Data!$C$20</f>
-        <v>0</v>
-      </c>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <f>[1]Data!$A$21</f>
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <f>[1]Data!$B$21</f>
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f>[1]Data!$C$21</f>
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vaccine_plot.xlsx
+++ b/vaccine_plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epivo/Documents/vaccine_project/vaccine_track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AEB012-F747-1540-BD2C-1E41B63E1485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524B04F0-5F78-4F46-9927-9AE58452F0E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8060" yWindow="3380" windowWidth="28440" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
   </bookViews>
@@ -208,10 +208,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$12</c:f>
+              <c:f>[1]Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -244,16 +244,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$B$2:$B$12</c:f>
+              <c:f>[1]Data!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -286,6 +289,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>30628175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31161075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,10 +343,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$12</c:f>
+              <c:f>[1]Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -373,16 +379,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$C$2:$C$12</c:f>
+              <c:f>[1]Data!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -466,10 +475,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$12</c:f>
+              <c:f>[1]Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -502,16 +511,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$D$2:$D$12</c:f>
+              <c:f>[1]Data!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -592,10 +604,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$12</c:f>
+              <c:f>[1]Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -628,16 +640,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$E$2:$E$12</c:f>
+              <c:f>[1]Data!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -670,6 +685,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11148991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12279180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,10 +739,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$12</c:f>
+              <c:f>[1]Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -757,16 +775,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$F$2:$F$12</c:f>
+              <c:f>[1]Data!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -799,6 +820,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9690757</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10595866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,10 +874,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$12</c:f>
+              <c:f>[1]Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -886,16 +910,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$G$2:$G$12</c:f>
+              <c:f>[1]Data!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -928,6 +955,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1342086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1610524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,10 +1015,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$12</c:f>
+              <c:f>[1]Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -1021,16 +1051,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$H$2:$H$12</c:f>
+              <c:f>[1]Data!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1063,6 +1096,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1225493</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1384963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2253,6 +2289,26 @@
           </cell>
           <cell r="H12">
             <v>1225493</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>44211</v>
+          </cell>
+          <cell r="B13">
+            <v>31161075</v>
+          </cell>
+          <cell r="E13">
+            <v>12279180</v>
+          </cell>
+          <cell r="F13">
+            <v>10595866</v>
+          </cell>
+          <cell r="G13">
+            <v>1610524</v>
+          </cell>
+          <cell r="H13">
+            <v>1384963</v>
           </cell>
         </row>
       </sheetData>

--- a/vaccine_plot.xlsx
+++ b/vaccine_plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epivo/Documents/vaccine_project/vaccine_track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524B04F0-5F78-4F46-9927-9AE58452F0E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F7736C-EAFA-1248-A4A3-CDAD092DD79B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8060" yWindow="3380" windowWidth="28440" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
   </bookViews>
@@ -208,10 +208,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$13</c:f>
+              <c:f>[1]Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -247,16 +247,22 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$B$2:$B$13</c:f>
+              <c:f>[1]Data!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -292,6 +298,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>31161075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31161075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35990150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -343,10 +355,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$13</c:f>
+              <c:f>[1]Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -382,16 +394,22 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$C$2:$C$13</c:f>
+              <c:f>[1]Data!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -475,10 +493,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$13</c:f>
+              <c:f>[1]Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -514,16 +532,22 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$D$2:$D$13</c:f>
+              <c:f>[1]Data!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -604,10 +628,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$13</c:f>
+              <c:f>[1]Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -643,16 +667,22 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$E$2:$E$13</c:f>
+              <c:f>[1]Data!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -688,6 +718,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12279180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15707588</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16525281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,10 +775,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$13</c:f>
+              <c:f>[1]Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -778,16 +814,22 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$F$2:$F$13</c:f>
+              <c:f>[1]Data!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -823,6 +865,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10595866</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13595803</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14270441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,10 +922,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$13</c:f>
+              <c:f>[1]Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -913,16 +961,22 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$G$2:$G$13</c:f>
+              <c:f>[1]Data!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -958,6 +1012,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1610524</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2161419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,10 +1075,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$13</c:f>
+              <c:f>[1]Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -1054,16 +1114,22 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$H$2:$H$13</c:f>
+              <c:f>[1]Data!$H$2:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1099,6 +1165,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1384963</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1745441</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1908256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,6 +2381,46 @@
           </cell>
           <cell r="H13">
             <v>1384963</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>44215</v>
+          </cell>
+          <cell r="B14">
+            <v>31161075</v>
+          </cell>
+          <cell r="E14">
+            <v>15707588</v>
+          </cell>
+          <cell r="F14">
+            <v>13595803</v>
+          </cell>
+          <cell r="G14">
+            <v>2023124</v>
+          </cell>
+          <cell r="H14">
+            <v>1745441</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>44216</v>
+          </cell>
+          <cell r="B15">
+            <v>35990150</v>
+          </cell>
+          <cell r="E15">
+            <v>16525281</v>
+          </cell>
+          <cell r="F15">
+            <v>14270441</v>
+          </cell>
+          <cell r="G15">
+            <v>2161419</v>
+          </cell>
+          <cell r="H15">
+            <v>1908256</v>
           </cell>
         </row>
       </sheetData>

--- a/vaccine_plot.xlsx
+++ b/vaccine_plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epivo/Documents/vaccine_project/vaccine_track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F7736C-EAFA-1248-A4A3-CDAD092DD79B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D76845-33E0-6549-AE0F-DD80B3347D69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8060" yWindow="3380" windowWidth="28440" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
   </bookViews>
@@ -208,10 +208,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$15</c:f>
+              <c:f>[1]Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -253,16 +253,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$B$2:$B$15</c:f>
+              <c:f>[1]Data!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -304,6 +307,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>35990150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37960000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -355,10 +361,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$15</c:f>
+              <c:f>[1]Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -400,16 +406,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$C$2:$C$15</c:f>
+              <c:f>[1]Data!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -493,10 +502,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$15</c:f>
+              <c:f>[1]Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -538,16 +547,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$D$2:$D$15</c:f>
+              <c:f>[1]Data!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -628,10 +640,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$15</c:f>
+              <c:f>[1]Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -673,16 +685,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$E$2:$E$15</c:f>
+              <c:f>[1]Data!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -724,6 +739,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>16525281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17546374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,10 +793,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$15</c:f>
+              <c:f>[1]Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -820,16 +838,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$F$2:$F$15</c:f>
+              <c:f>[1]Data!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -871,6 +892,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14270441</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15053257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,10 +946,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$15</c:f>
+              <c:f>[1]Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -967,16 +991,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$G$2:$G$15</c:f>
+              <c:f>[1]Data!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1018,6 +1045,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2161419</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2394961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,10 +1105,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$15</c:f>
+              <c:f>[1]Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -1120,16 +1150,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$H$2:$H$15</c:f>
+              <c:f>[1]Data!$H$2:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1171,6 +1204,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1908256</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2089181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2421,6 +2457,26 @@
           </cell>
           <cell r="H15">
             <v>1908256</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>44217</v>
+          </cell>
+          <cell r="B16">
+            <v>37960000</v>
+          </cell>
+          <cell r="E16">
+            <v>17546374</v>
+          </cell>
+          <cell r="F16">
+            <v>15053257</v>
+          </cell>
+          <cell r="G16">
+            <v>2394961</v>
+          </cell>
+          <cell r="H16">
+            <v>2089181</v>
           </cell>
         </row>
       </sheetData>

--- a/vaccine_plot.xlsx
+++ b/vaccine_plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epivo/Documents/vaccine_project/vaccine_track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D76845-33E0-6549-AE0F-DD80B3347D69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BB81E3-1819-8943-B584-17CAE9E6E771}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8060" yWindow="3380" windowWidth="28440" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
   </bookViews>
@@ -208,10 +208,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$16</c:f>
+              <c:f>[1]Data!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -256,16 +256,28 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$B$2:$B$16</c:f>
+              <c:f>[1]Data!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -310,6 +322,18 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>37960000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41411550</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41418325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44394075</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47230950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,10 +385,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$16</c:f>
+              <c:f>[1]Data!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -409,16 +433,28 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$C$2:$C$16</c:f>
+              <c:f>[1]Data!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -502,10 +538,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$16</c:f>
+              <c:f>[1]Data!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -550,16 +586,28 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$D$2:$D$16</c:f>
+              <c:f>[1]Data!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -640,10 +688,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$16</c:f>
+              <c:f>[1]Data!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -688,16 +736,28 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$E$2:$E$16</c:f>
+              <c:f>[1]Data!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -742,6 +802,18 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>17546374</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21848655</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22734243</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23540994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24652634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,10 +865,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$16</c:f>
+              <c:f>[1]Data!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -841,16 +913,28 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$F$2:$F$16</c:f>
+              <c:f>[1]Data!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -895,6 +979,18 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15053257</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18502131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19252279</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19902237</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20687970</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,10 +1042,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$16</c:f>
+              <c:f>[1]Data!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -994,16 +1090,28 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$G$2:$G$16</c:f>
+              <c:f>[1]Data!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1048,6 +1156,18 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2394961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3216836</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3346390</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3481921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3801053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,10 +1225,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$16</c:f>
+              <c:f>[1]Data!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -1153,16 +1273,28 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$H$2:$H$16</c:f>
+              <c:f>[1]Data!$H$2:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1207,6 +1339,18 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2089181</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2567018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2714487</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2725830</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2904840</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2479,6 +2623,86 @@
             <v>2089181</v>
           </cell>
         </row>
+        <row r="17">
+          <cell r="A17">
+            <v>44220</v>
+          </cell>
+          <cell r="B17">
+            <v>41411550</v>
+          </cell>
+          <cell r="E17">
+            <v>21848655</v>
+          </cell>
+          <cell r="F17">
+            <v>18502131</v>
+          </cell>
+          <cell r="G17">
+            <v>3216836</v>
+          </cell>
+          <cell r="H17">
+            <v>2567018</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>44221</v>
+          </cell>
+          <cell r="B18">
+            <v>41418325</v>
+          </cell>
+          <cell r="E18">
+            <v>22734243</v>
+          </cell>
+          <cell r="F18">
+            <v>19252279</v>
+          </cell>
+          <cell r="G18">
+            <v>3346390</v>
+          </cell>
+          <cell r="H18">
+            <v>2714487</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>44222</v>
+          </cell>
+          <cell r="B19">
+            <v>44394075</v>
+          </cell>
+          <cell r="E19">
+            <v>23540994</v>
+          </cell>
+          <cell r="F19">
+            <v>19902237</v>
+          </cell>
+          <cell r="G19">
+            <v>3481921</v>
+          </cell>
+          <cell r="H19">
+            <v>2725830</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>44223</v>
+          </cell>
+          <cell r="B20">
+            <v>47230950</v>
+          </cell>
+          <cell r="E20">
+            <v>24652634</v>
+          </cell>
+          <cell r="F20">
+            <v>20687970</v>
+          </cell>
+          <cell r="G20">
+            <v>3801053</v>
+          </cell>
+          <cell r="H20">
+            <v>2904840</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>

--- a/vaccine_plot.xlsx
+++ b/vaccine_plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epivo/Documents/vaccine_project/vaccine_track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BB81E3-1819-8943-B584-17CAE9E6E771}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFFA87D-CC67-BA40-8CAF-CB9BE7056D40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="3380" windowWidth="28440" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
+    <workbookView xWindow="11480" yWindow="1220" windowWidth="28440" windowHeight="19660" xr2:uid="{AADC0F7D-6117-8A43-8F53-9F6A5AAE79EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,10 +208,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$20</c:f>
+              <c:f>[1]Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -268,16 +268,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$B$2:$B$20</c:f>
+              <c:f>[1]Data!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -334,6 +337,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>47230950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48386275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,10 +391,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$20</c:f>
+              <c:f>[1]Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -445,16 +451,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$C$2:$C$20</c:f>
+              <c:f>[1]Data!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -538,10 +547,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$20</c:f>
+              <c:f>[1]Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -598,16 +607,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$D$2:$D$20</c:f>
+              <c:f>[1]Data!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -688,10 +700,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$20</c:f>
+              <c:f>[1]Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -748,16 +760,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$E$2:$E$20</c:f>
+              <c:f>[1]Data!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -814,6 +829,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>24652634</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26193682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,10 +883,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$20</c:f>
+              <c:f>[1]Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -925,16 +943,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$F$2:$F$20</c:f>
+              <c:f>[1]Data!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -991,6 +1012,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>20687970</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21698606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,10 +1066,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$20</c:f>
+              <c:f>[1]Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -1102,16 +1126,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$G$2:$G$20</c:f>
+              <c:f>[1]Data!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1168,6 +1195,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3801053</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4263056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,10 +1255,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$2:$A$20</c:f>
+              <c:f>[1]Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44178</c:v>
                 </c:pt>
@@ -1285,16 +1315,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$H$2:$H$20</c:f>
+              <c:f>[1]Data!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1351,6 +1384,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2904840</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3102134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,6 +2739,26 @@
             <v>2904840</v>
           </cell>
         </row>
+        <row r="21">
+          <cell r="A21">
+            <v>44224</v>
+          </cell>
+          <cell r="B21">
+            <v>48386275</v>
+          </cell>
+          <cell r="E21">
+            <v>26193682</v>
+          </cell>
+          <cell r="F21">
+            <v>21698606</v>
+          </cell>
+          <cell r="G21">
+            <v>4263056</v>
+          </cell>
+          <cell r="H21">
+            <v>3102134</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -3009,7 +3065,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
